--- a/ServiceNow.xlsx
+++ b/ServiceNow.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthick\git\Assesments\MavenProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41897A31-0B48-423B-A2AE-AC8265F8D978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F7F6AF-641F-4330-B51B-FBFCA388BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FFF8434-C9DD-4538-9C5F-ADE1EEE07C06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6FFF8434-C9DD-4538-9C5F-ADE1EEE07C06}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MobileOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="createNewCaller" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Is Replaced</t>
   </si>
@@ -78,13 +79,43 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>sivaTest@gmail.com</t>
+  </si>
+  <si>
+    <t>9632587410</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +129,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,18 +188,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896F5ED-F246-4F06-9F63-FB788AD08F3F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,4 +585,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9DFF55-F814-4AA8-847F-F9890BCB781E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>